--- a/medicine/Œil et vue/Muscle_ciliaire/Muscle_ciliaire.xlsx
+++ b/medicine/Œil et vue/Muscle_ciliaire/Muscle_ciliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles ciliaires sont mis en jeu lors de l'accommodation dans le domaine de la vision. Ils bombent la face antérieure du cristallin pour augmenter son pouvoir convergent. Il permet de tirer en avant les fibres zonulaires, elles-mêmes fixées à l'équateur du cristallin, permettant de le rendre plus convergent.
 C'est un muscle lisse qui possède des fibres circulaires centrales et méridiennes périphériques. 
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle ciliaire est innervé par le nerf oculomoteur (III)
 </t>
